--- a/data-siswa.xlsx
+++ b/data-siswa.xlsx
@@ -15,60 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
-    <t>NIM</t>
+    <t>nisn</t>
   </si>
   <si>
     <t>SISWA</t>
-  </si>
-  <si>
-    <t>18SI1000</t>
-  </si>
-  <si>
-    <t>Muhammad Athallah Zuhry</t>
-  </si>
-  <si>
-    <t>18SI1001</t>
-  </si>
-  <si>
-    <t>Rian Armansyah Maulana</t>
-  </si>
-  <si>
-    <t>18SI1002</t>
-  </si>
-  <si>
-    <t>Rezha Septyan Ramandha</t>
-  </si>
-  <si>
-    <t>18SI1003</t>
-  </si>
-  <si>
-    <t>Ovillia Dyah Charisma</t>
-  </si>
-  <si>
-    <t>18TI2000</t>
-  </si>
-  <si>
-    <t>Hadi Luthfi Firdaus</t>
-  </si>
-  <si>
-    <t>18TI2001</t>
-  </si>
-  <si>
-    <t>Muhammad Fajar</t>
-  </si>
-  <si>
-    <t>18TI2002</t>
-  </si>
-  <si>
-    <t>Bagus Widiatmono</t>
-  </si>
-  <si>
-    <t>18TI2003</t>
-  </si>
-  <si>
-    <t>Aris Harwanto</t>
   </si>
 </sst>
 </file>
@@ -407,7 +359,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,70 +373,6 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data-siswa.xlsx
+++ b/data-siswa.xlsx
@@ -15,12 +15,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>nisn</t>
   </si>
   <si>
     <t>SISWA</t>
+  </si>
+  <si>
+    <t>Muhammad Athallah Zhuhry</t>
+  </si>
+  <si>
+    <t>Muhammad Mulvi</t>
+  </si>
+  <si>
+    <t>Nardin</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>Hawariyyun</t>
+  </si>
+  <si>
+    <t>Adam Malik</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Dimas Riyadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aidil Fitra </t>
+  </si>
+  <si>
+    <t>HANAN</t>
   </si>
 </sst>
 </file>
@@ -359,7 +389,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,6 +403,86 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>20180000001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>20180000002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>20180000003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2863752328</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>9983635262</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>99837243</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>998735433</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>998754326</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>99883756255</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>9998765</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
